--- a/linkedin_links.xlsx
+++ b/linkedin_links.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -29,6 +29,312 @@
   </si>
   <si>
     <t>https://www.linkedin.com/company/3way-solutions</t>
+  </si>
+  <si>
+    <t>7puentes</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/7puentes</t>
+  </si>
+  <si>
+    <t>abtio</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/abtio</t>
+  </si>
+  <si>
+    <t>accenturear</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/accenturear/</t>
+  </si>
+  <si>
+    <t>cessi-camara-de-la-industria-argentina-del-software</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/cessi-camara-de-la-industria-argentina-del-software</t>
+  </si>
+  <si>
+    <t>accuratio</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/accuratio/</t>
+  </si>
+  <si>
+    <t>accusys-technology</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/accusys-technology?goback=%2Efcs_GLHD_accusys_false_*2_*2_*2_*2_*2_*2_*2_*2_*2_*2_*2_*2&amp;trk=top_nav_home</t>
+  </si>
+  <si>
+    <t>adhoc</t>
+  </si>
+  <si>
+    <t>https://ar.linkedin.com/company/adhoc?</t>
+  </si>
+  <si>
+    <t>adva</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/adva/</t>
+  </si>
+  <si>
+    <t>adviters</t>
+  </si>
+  <si>
+    <t>https://ar.linkedin.com/company/adviters</t>
+  </si>
+  <si>
+    <t>citialapampa</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/citialapampa</t>
+  </si>
+  <si>
+    <t>623553</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/623553?trk=vsrp_companies_res_name&amp;trkInfo=VSRPsearchId%3A2367722731468441477269%2CVSRPtargetId%3A623553%2CVSRPcmpt%3Aprimary</t>
+  </si>
+  <si>
+    <t>algeiba-s-a-</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/algeiba-s-a-/</t>
+  </si>
+  <si>
+    <t>alkemy2020</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/alkemy2020/</t>
+  </si>
+  <si>
+    <t>amd</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/amd/</t>
+  </si>
+  <si>
+    <t>andromeda-latam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/andromeda-latam/</t>
+  </si>
+  <si>
+    <t>Anzus-Group</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/Anzus-Group</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/93077857/admin/feed/posts/</t>
+  </si>
+  <si>
+    <t>11354334</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/11354334/</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/arbustait/?originalSubdomain=ar</t>
+  </si>
+  <si>
+    <t>archt-software-4b530922b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/archt-software-4b530922b/</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/around/</t>
+  </si>
+  <si>
+    <t>mycompany</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/artekium/mycompany/</t>
+  </si>
+  <si>
+    <t>artiatec</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/artiatec</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/asap-consulting-s.a./posts/?feedView=all</t>
+  </si>
+  <si>
+    <t>aticma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/aticma</t>
+  </si>
+  <si>
+    <t>atawaybuenosaires</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/atawaybuenosaires/</t>
+  </si>
+  <si>
+    <t>atos</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/atos/</t>
+  </si>
+  <si>
+    <t>autodesk</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/autodesk/</t>
+  </si>
+  <si>
+    <t>add-sa</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/add-sa/</t>
+  </si>
+  <si>
+    <t>artware-solutions</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/artware-solutions</t>
+  </si>
+  <si>
+    <t>axxon-consulting</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/axxon-consulting</t>
+  </si>
+  <si>
+    <t>azabaz</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/azabaz</t>
+  </si>
+  <si>
+    <t>baufest</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/baufest/</t>
+  </si>
+  <si>
+    <t>bdt-group-srl</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/bdt-group-srl/</t>
+  </si>
+  <si>
+    <t>bethedriver</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/bethedriver</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/beclevercorp/mycompany/?viewAsMember=true</t>
+  </si>
+  <si>
+    <t>10812200</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/10812200/</t>
+  </si>
+  <si>
+    <t>making-sense-llc</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/making-sense-llc/</t>
+  </si>
+  <si>
+    <t>bitionz</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/bitionz</t>
+  </si>
+  <si>
+    <t>biwares</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/biwares</t>
+  </si>
+  <si>
+    <t>blimop</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/blimop/</t>
+  </si>
+  <si>
+    <t>bombieri</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/bombieri/</t>
+  </si>
+  <si>
+    <t>brightside-it-consulting</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/brightside-it-consulting/</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/3682103/admin/</t>
+  </si>
+  <si>
+    <t>bullano</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/bullano/</t>
+  </si>
+  <si>
+    <t>c&amp;s-informatica-s.a.</t>
+  </si>
+  <si>
+    <t>https://ar.linkedin.com/company/c&amp;s-informatica-s.a.</t>
+  </si>
+  <si>
+    <t>calipso-visma</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/calipso-visma/</t>
+  </si>
+  <si>
+    <t>cluster-cedi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/cluster-cedi/</t>
+  </si>
+  <si>
+    <t>caridad-relaciones-efectivas</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/caridad-relaciones-efectivas/</t>
+  </si>
+  <si>
+    <t>camara-de-tecnolog%C3%ADa-de-santiago-del-estero</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/camara-de-tecnolog%C3%ADa-de-santiago-del-estero/</t>
+  </si>
+  <si>
+    <t>celta-technology</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/celta-technology/</t>
+  </si>
+  <si>
+    <t>censys-sa</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/censys-sa/</t>
   </si>
 </sst>
 </file>
@@ -405,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B101"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -436,6 +742,790 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
